--- a/Connectivity_matrices/Theoretical_connectivity_matrices.xlsx
+++ b/Connectivity_matrices/Theoretical_connectivity_matrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\Connectivity_matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55199ED9-67C1-4EFC-B18D-2FDC1472457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C010FD4-6034-4516-9CAE-4B541FF9197B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -31627,7 +31627,7 @@
       </c>
       <c r="DE76" s="3">
         <f>'PFN-to-PFL'!B1 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DF76" s="3">
         <f>'PFN-to-PFL'!C1 * Gains!$K$9</f>
@@ -32034,7 +32034,7 @@
       </c>
       <c r="DF77" s="3">
         <f>'PFN-to-PFL'!C2 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DG77" s="3">
         <f>'PFN-to-PFL'!D2 * Gains!$K$9</f>
@@ -32441,7 +32441,7 @@
       </c>
       <c r="DG78" s="3">
         <f>'PFN-to-PFL'!D3 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DH78" s="3">
         <f>'PFN-to-PFL'!E3 * Gains!$K$9</f>
@@ -32848,7 +32848,7 @@
       </c>
       <c r="DH79" s="3">
         <f>'PFN-to-PFL'!E4 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DI79" s="3">
         <f>'PFN-to-PFL'!F4 * Gains!$K$9</f>
@@ -33255,7 +33255,7 @@
       </c>
       <c r="DI80" s="3">
         <f>'PFN-to-PFL'!F5 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DJ80" s="3">
         <f>'PFN-to-PFL'!G5 * Gains!$K$9</f>
@@ -33662,7 +33662,7 @@
       </c>
       <c r="DJ81" s="3">
         <f>'PFN-to-PFL'!G6 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DK81" s="3">
         <f>'PFN-to-PFL'!H6 * Gains!$K$9</f>
@@ -34069,7 +34069,7 @@
       </c>
       <c r="DK82" s="3">
         <f>'PFN-to-PFL'!H7 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DL82" s="3">
         <f>'PFN-to-PFL'!I7 * Gains!$K$9</f>
@@ -34444,7 +34444,7 @@
       </c>
       <c r="DD83" s="3">
         <f>'PFN-to-PFL'!A8 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DE83" s="3">
         <f>'PFN-to-PFL'!B8 * Gains!$K$9</f>
@@ -34907,7 +34907,7 @@
       </c>
       <c r="DS84" s="3">
         <f>'PFN-to-PFL'!P9 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:123" x14ac:dyDescent="0.25">
@@ -35282,7 +35282,7 @@
       </c>
       <c r="DL85" s="3">
         <f>'PFN-to-PFL'!I10 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DM85" s="3">
         <f>'PFN-to-PFL'!J10 * Gains!$K$9</f>
@@ -35689,7 +35689,7 @@
       </c>
       <c r="DM86" s="3">
         <f>'PFN-to-PFL'!J11 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DN86" s="3">
         <f>'PFN-to-PFL'!K11 * Gains!$K$9</f>
@@ -36096,7 +36096,7 @@
       </c>
       <c r="DN87" s="3">
         <f>'PFN-to-PFL'!K12 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DO87" s="3">
         <f>'PFN-to-PFL'!L12 * Gains!$K$9</f>
@@ -36503,7 +36503,7 @@
       </c>
       <c r="DO88" s="3">
         <f>'PFN-to-PFL'!L13 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DP88" s="3">
         <f>'PFN-to-PFL'!M13 * Gains!$K$9</f>
@@ -36910,7 +36910,7 @@
       </c>
       <c r="DP89" s="3">
         <f>'PFN-to-PFL'!M14 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DQ89" s="3">
         <f>'PFN-to-PFL'!N14 * Gains!$K$9</f>
@@ -37317,7 +37317,7 @@
       </c>
       <c r="DQ90" s="3">
         <f>'PFN-to-PFL'!N15 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DR90" s="3">
         <f>'PFN-to-PFL'!O15 * Gains!$K$9</f>
@@ -37724,7 +37724,7 @@
       </c>
       <c r="DR91" s="3">
         <f>'PFN-to-PFL'!O16 * Gains!$K$9</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="DS91" s="3">
         <f>'PFN-to-PFL'!P16 * Gains!$K$9</f>
@@ -38103,7 +38103,7 @@
       </c>
       <c r="DL92" s="1">
         <f>'hd-to-PFL'!I1 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DM92" s="1">
         <f>'hd-to-PFL'!J1 * Gains!$K$10</f>
@@ -38510,7 +38510,7 @@
       </c>
       <c r="DM93" s="1">
         <f>'hd-to-PFL'!J2 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DN93" s="1">
         <f>'hd-to-PFL'!K2 * Gains!$K$10</f>
@@ -38917,7 +38917,7 @@
       </c>
       <c r="DN94" s="1">
         <f>'hd-to-PFL'!K3 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DO94" s="1">
         <f>'hd-to-PFL'!L3 * Gains!$K$10</f>
@@ -39324,7 +39324,7 @@
       </c>
       <c r="DO95" s="1">
         <f>'hd-to-PFL'!L4 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DP95" s="1">
         <f>'hd-to-PFL'!M4 * Gains!$K$10</f>
@@ -39731,7 +39731,7 @@
       </c>
       <c r="DP96" s="1">
         <f>'hd-to-PFL'!M5 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DQ96" s="1">
         <f>'hd-to-PFL'!N5 * Gains!$K$10</f>
@@ -40138,7 +40138,7 @@
       </c>
       <c r="DQ97" s="1">
         <f>'hd-to-PFL'!N6 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DR97" s="1">
         <f>'hd-to-PFL'!O6 * Gains!$K$10</f>
@@ -40545,7 +40545,7 @@
       </c>
       <c r="DR98" s="1">
         <f>'hd-to-PFL'!O7 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DS98" s="1">
         <f>'hd-to-PFL'!P7 * Gains!$K$10</f>
@@ -40952,7 +40952,7 @@
       </c>
       <c r="DS99" s="1">
         <f>'hd-to-PFL'!P8 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:123" x14ac:dyDescent="0.25">
@@ -41295,7 +41295,7 @@
       </c>
       <c r="DD100" s="1">
         <f>'hd-to-PFL'!A9 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DE100" s="1">
         <f>'hd-to-PFL'!B9 * Gains!$K$10</f>
@@ -41702,7 +41702,7 @@
       </c>
       <c r="DE101" s="1">
         <f>'hd-to-PFL'!B10 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DF101" s="1">
         <f>'hd-to-PFL'!C10 * Gains!$K$10</f>
@@ -42109,7 +42109,7 @@
       </c>
       <c r="DF102" s="1">
         <f>'hd-to-PFL'!C11 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DG102" s="1">
         <f>'hd-to-PFL'!D11 * Gains!$K$10</f>
@@ -42516,7 +42516,7 @@
       </c>
       <c r="DG103" s="1">
         <f>'hd-to-PFL'!D12 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DH103" s="1">
         <f>'hd-to-PFL'!E12 * Gains!$K$10</f>
@@ -42923,7 +42923,7 @@
       </c>
       <c r="DH104" s="1">
         <f>'hd-to-PFL'!E13 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DI104" s="1">
         <f>'hd-to-PFL'!F13 * Gains!$K$10</f>
@@ -43330,7 +43330,7 @@
       </c>
       <c r="DI105" s="1">
         <f>'hd-to-PFL'!F14 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DJ105" s="1">
         <f>'hd-to-PFL'!G14 * Gains!$K$10</f>
@@ -43737,7 +43737,7 @@
       </c>
       <c r="DJ106" s="1">
         <f>'hd-to-PFL'!G15 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DK106" s="1">
         <f>'hd-to-PFL'!H15 * Gains!$K$10</f>
@@ -44144,7 +44144,7 @@
       </c>
       <c r="DK107" s="1">
         <f>'hd-to-PFL'!H16 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="DL107" s="1">
         <f>'hd-to-PFL'!I16 * Gains!$K$10</f>
@@ -50118,6 +50118,18 @@
   </sheetData>
   <conditionalFormatting sqref="L1:AA8 AR9:BG10 AB12:BW27 BX11:CM11 L28:AA59 AB60:CM75 CN76:DC91 DD60:DS107">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28:AA75 AB60:AQ75">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50152,18 +50164,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:AA75 AB60:AQ75">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -50980,8 +50980,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A9:H16 I1:P8">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="A1:H8">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50992,8 +50992,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H8">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A9:H16 I1:P8">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -55694,7 +55694,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -56008,7 +56008,7 @@
         <v>1E-3</v>
       </c>
       <c r="K9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -56043,7 +56043,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
